--- a/data/add-only-output.xlsx
+++ b/data/add-only-output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A-DATA\GoogleDriveYork\Writings\ECMFA-2019\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499F57E-192E-408E-9102-EB75F19DB708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16040564-E21D-4C50-B519-042641676120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10814" windowHeight="4211" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1541,7 +1541,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -1732,7 +1732,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -1923,7 +1923,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -2175,7 +2175,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -5943,7 +5943,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -6134,7 +6134,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -6386,7 +6386,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -7467,7 +7467,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -7660,7 +7660,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -7904,7 +7904,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -9821,7 +9821,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -10014,7 +10014,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -10266,7 +10266,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -12191,7 +12191,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.20719099999999999</c:v>
@@ -12441,7 +12441,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
@@ -24293,8 +24293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA29" sqref="BA29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -24392,7 +24392,7 @@
         <f>output!A2</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <f>output!D2/1000000</f>
         <v>0.20719099999999999</v>
       </c>
@@ -24482,7 +24482,7 @@
         <f>output!A3</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <f>output!D3/1000000</f>
         <v>0.41408400000000001</v>
       </c>
@@ -24572,7 +24572,7 @@
         <f>output!A4</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <f>output!D4/1000000</f>
         <v>0.62065000000000003</v>
       </c>
@@ -24662,7 +24662,7 @@
         <f>output!A5</f>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <f>output!D5/1000000</f>
         <v>0.82666399999999995</v>
       </c>
@@ -24752,7 +24752,7 @@
         <f>output!A6</f>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <f>output!D6/1000000</f>
         <v>1.032635</v>
       </c>
@@ -24842,7 +24842,7 @@
         <f>output!A7</f>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <f>output!D7/1000000</f>
         <v>1.2383150000000001</v>
       </c>
@@ -24932,7 +24932,7 @@
         <f>output!A8</f>
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <f>output!D8/1000000</f>
         <v>1.4437530000000001</v>
       </c>
@@ -25022,7 +25022,7 @@
         <f>output!A9</f>
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <f>output!D9/1000000</f>
         <v>1.6489780000000001</v>
       </c>
@@ -25112,7 +25112,7 @@
         <f>output!A10</f>
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <f>output!D10/1000000</f>
         <v>1.853942</v>
       </c>
@@ -25202,7 +25202,7 @@
         <f>output!A11</f>
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <f>output!D11/1000000</f>
         <v>2.0586989999999998</v>
       </c>
@@ -25292,7 +25292,7 @@
         <f>output!A12</f>
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <f>output!D12/1000000</f>
         <v>2.2633450000000002</v>
       </c>
@@ -25382,7 +25382,7 @@
         <f>output!A13</f>
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <f>output!D13/1000000</f>
         <v>2.4678779999999998</v>
       </c>
@@ -25472,7 +25472,7 @@
         <f>output!A14</f>
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <f>output!D14/1000000</f>
         <v>2.6722570000000001</v>
       </c>
@@ -25562,7 +25562,7 @@
         <f>output!A15</f>
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <f>output!D15/1000000</f>
         <v>2.8764340000000002</v>
       </c>
@@ -25652,7 +25652,7 @@
         <f>output!A16</f>
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <f>output!D16/1000000</f>
         <v>3.080552</v>
       </c>
@@ -25742,7 +25742,7 @@
         <f>output!A17</f>
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <f>output!D17/1000000</f>
         <v>3.284608</v>
       </c>
@@ -25832,7 +25832,7 @@
         <f>output!A18</f>
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <f>output!D18/1000000</f>
         <v>3.4885060000000001</v>
       </c>
@@ -25922,7 +25922,7 @@
         <f>output!A19</f>
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <f>output!D19/1000000</f>
         <v>3.6921599999999999</v>
       </c>
@@ -26012,7 +26012,7 @@
         <f>output!A20</f>
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="4">
         <f>output!D20/1000000</f>
         <v>3.895734</v>
       </c>
@@ -26102,7 +26102,7 @@
         <f>output!A21</f>
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <f>output!D21/1000000</f>
         <v>4.0992090000000001</v>
       </c>
@@ -26192,7 +26192,7 @@
         <f>output!A22</f>
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <f>output!D22/1000000</f>
         <v>4.3027329999999999</v>
       </c>
@@ -26282,7 +26282,7 @@
         <f>output!A23</f>
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <f>output!D23/1000000</f>
         <v>4.5060469999999997</v>
       </c>
@@ -26455,11 +26455,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="I33:M33"/>
     <mergeCell ref="S32:W32"/>
     <mergeCell ref="S33:W33"/>
     <mergeCell ref="S34:W34"/>
@@ -26467,6 +26462,11 @@
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="I33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
